--- a/楓Duty.xlsx
+++ b/楓Duty.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawataryousuke/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawataryousuke/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4C8373-7E8E-A649-BAD0-6450A7AEBD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25525360-6F87-D547-A660-B8BE53A54C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1500" windowWidth="28300" windowHeight="17440" xr2:uid="{A7B9F7A0-58BE-114E-BBB9-CD43B769127A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>小野文哉</t>
   </si>
@@ -93,25 +93,25 @@
     <t>山口洸翔</t>
   </si>
   <si>
-    <t>楓のみんな</t>
+    <t>day</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>name_duty</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>志塚惇希</t>
+  </si>
+  <si>
+    <t>小溝賢</t>
+  </si>
+  <si>
+    <t>楓のみな</t>
     <rPh sb="0" eb="1">
       <t>カエデ</t>
     </rPh>
     <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>day</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>name_duty</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>志塚惇希</t>
-  </si>
-  <si>
-    <t>小溝賢</t>
   </si>
 </sst>
 </file>
@@ -511,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F72E497-58E9-8D49-A916-0EED2DC06C7E}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="171" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -522,34 +522,34 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -557,7 +557,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -565,15 +565,15 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -581,7 +581,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -589,23 +589,23 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -613,31 +613,31 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>10</v>
+      <c r="B13" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>11</v>
+      <c r="B14" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -645,7 +645,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -653,7 +653,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -661,31 +661,31 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>16</v>
+      <c r="B19" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>17</v>
+      <c r="B20" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -693,7 +693,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -701,31 +701,31 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>0</v>
+      <c r="B24" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>1</v>
+      <c r="B25" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>2</v>
+      <c r="B26" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -733,7 +733,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -741,7 +741,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -749,7 +749,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -757,7 +757,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -765,16 +765,14 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="B32" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>

--- a/楓Duty.xlsx
+++ b/楓Duty.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawataryousuke/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25525360-6F87-D547-A660-B8BE53A54C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA095B4-6B42-ED42-93E6-24B7EA1D7E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1500" windowWidth="28300" windowHeight="17440" xr2:uid="{A7B9F7A0-58BE-114E-BBB9-CD43B769127A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>小野文哉</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>氏家琉貴</t>
-  </si>
-  <si>
-    <t>兒島大志郎</t>
   </si>
   <si>
     <t>羽賀尚生</t>
@@ -107,11 +104,7 @@
     <t>小溝賢</t>
   </si>
   <si>
-    <t>楓のみな</t>
-    <rPh sb="0" eb="1">
-      <t>カエデ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
+    <t>高野怜央</t>
   </si>
 </sst>
 </file>
@@ -511,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F72E497-58E9-8D49-A916-0EED2DC06C7E}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="171" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -522,10 +515,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -533,31 +526,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -565,7 +558,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -573,7 +566,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -581,39 +574,37 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>23</v>
+      <c r="B11" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>18</v>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -621,7 +612,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -629,47 +620,47 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>0</v>
+      <c r="B15" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>1</v>
+      <c r="B16" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>2</v>
+      <c r="B17" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>6</v>
+      <c r="B18" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>3</v>
+      <c r="B19" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -677,7 +668,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -685,7 +676,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -693,7 +684,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -701,72 +692,56 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="B25" s="4"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B26" s="3"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="B27" s="3"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">

--- a/楓Duty.xlsx
+++ b/楓Duty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawataryousuke/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA095B4-6B42-ED42-93E6-24B7EA1D7E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D6FD53-B822-0248-B3C8-07A7B06CB8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1500" windowWidth="28300" windowHeight="17440" xr2:uid="{A7B9F7A0-58BE-114E-BBB9-CD43B769127A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>小野文哉</t>
   </si>
@@ -105,6 +105,28 @@
   </si>
   <si>
     <t>高野怜央</t>
+  </si>
+  <si>
+    <t>山口玲</t>
+    <rPh sb="0" eb="1">
+      <t>ヤマグチアク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">レイ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>志塚惇希</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>山口洸翔</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
@@ -504,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F72E497-58E9-8D49-A916-0EED2DC06C7E}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -699,55 +721,73 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="4"/>
+      <c r="B25" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="2"/>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>

--- a/楓Duty.xlsx
+++ b/楓Duty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawataryousuke/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D6FD53-B822-0248-B3C8-07A7B06CB8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C94181-07D7-8D4D-B0C2-5692C24D8D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1500" windowWidth="28300" windowHeight="17440" xr2:uid="{A7B9F7A0-58BE-114E-BBB9-CD43B769127A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>小野文哉</t>
   </si>
@@ -126,6 +126,10 @@
   </si>
   <si>
     <t>なし</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>みなさん</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -527,7 +531,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -603,7 +607,9 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">

--- a/楓Duty.xlsx
+++ b/楓Duty.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawataryousuke/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C94181-07D7-8D4D-B0C2-5692C24D8D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E11ED0-E80B-9D4C-80E9-91EEA61185C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1500" windowWidth="28300" windowHeight="17440" xr2:uid="{A7B9F7A0-58BE-114E-BBB9-CD43B769127A}"/>
+    <workbookView xWindow="2640" yWindow="9000" windowWidth="28300" windowHeight="17440" xr2:uid="{A7B9F7A0-58BE-114E-BBB9-CD43B769127A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,75 +69,65 @@
     <t>富澤天音</t>
   </si>
   <si>
+    <t>池田伊吹</t>
+  </si>
+  <si>
+    <t>神山修造</t>
+  </si>
+  <si>
+    <t>川田涼介</t>
+  </si>
+  <si>
+    <t>豊島亮</t>
+  </si>
+  <si>
+    <t>林健太郎</t>
+  </si>
+  <si>
+    <t>山口洸翔</t>
+  </si>
+  <si>
+    <t>day</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>name_duty</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>志塚惇希</t>
+  </si>
+  <si>
+    <t>小溝賢</t>
+  </si>
+  <si>
+    <t>高野怜央</t>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>石井海成</t>
+  </si>
+  <si>
     <t>Owen Williamson</t>
   </si>
   <si>
-    <t>池田伊吹</t>
-  </si>
-  <si>
-    <t>神山修造</t>
-  </si>
-  <si>
-    <t>川田涼介</t>
-  </si>
-  <si>
-    <t>豊島亮</t>
-  </si>
-  <si>
-    <t>林健太郎</t>
-  </si>
-  <si>
-    <t>山口洸翔</t>
-  </si>
-  <si>
-    <t>day</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>name_duty</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>志塚惇希</t>
-  </si>
-  <si>
-    <t>小溝賢</t>
-  </si>
-  <si>
-    <t>高野怜央</t>
+    <t>みな</t>
   </si>
   <si>
     <t>山口玲</t>
-    <rPh sb="0" eb="1">
-      <t>ヤマグチアク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t xml:space="preserve">レイ </t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>志塚惇希</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>山口洸翔</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>なし</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>みなさん</t>
-    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>兒島大志郎</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -164,16 +154,21 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="6"/>
+      <name val="ArialMT"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Roboto"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="6"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="ArialMT"/>
-      <family val="2"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -198,7 +193,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -211,7 +206,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -530,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F72E497-58E9-8D49-A916-0EED2DC06C7E}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -541,10 +539,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -552,7 +550,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -560,7 +558,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -568,7 +566,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -576,31 +574,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>0</v>
+      <c r="B6" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>1</v>
+      <c r="B7" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>2</v>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -608,7 +606,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -616,39 +614,39 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>4</v>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>5</v>
+      <c r="B12" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>6</v>
+      <c r="B13" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>7</v>
+      <c r="B14" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -656,15 +654,15 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>9</v>
+      <c r="B16" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -672,55 +670,55 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>11</v>
+      <c r="B18" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>12</v>
+      <c r="B19" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>13</v>
+      <c r="B20" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>14</v>
+      <c r="B21" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>15</v>
+      <c r="B22" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>22</v>
+      <c r="B23" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -728,15 +726,15 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>26</v>
+      <c r="B25" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -744,59 +742,60 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>24</v>
+      <c r="B27" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>26</v>
+      <c r="B28" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>26</v>
+      <c r="B29" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>26</v>
+      <c r="B30" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>25</v>
+      <c r="B31" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>26</v>
+      <c r="B32" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/楓Duty.xlsx
+++ b/楓Duty.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawataryousuke/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawataryousuke/Downloads/12.duty_bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E11ED0-E80B-9D4C-80E9-91EEA61185C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC480D0-3504-3F45-956D-4738269EA189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="9000" windowWidth="28300" windowHeight="17440" xr2:uid="{A7B9F7A0-58BE-114E-BBB9-CD43B769127A}"/>
+    <workbookView xWindow="120" yWindow="1000" windowWidth="28300" windowHeight="17440" xr2:uid="{A7B9F7A0-58BE-114E-BBB9-CD43B769127A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>小野文哉</t>
   </si>
@@ -78,9 +78,6 @@
     <t>川田涼介</t>
   </si>
   <si>
-    <t>豊島亮</t>
-  </si>
-  <si>
     <t>林健太郎</t>
   </si>
   <si>
@@ -88,11 +85,11 @@
   </si>
   <si>
     <t>day</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>name_duty</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>志塚惇希</t>
@@ -104,17 +101,7 @@
     <t>高野怜央</t>
   </si>
   <si>
-    <t>なし</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>石井海成</t>
-  </si>
-  <si>
-    <t>Owen Williamson</t>
-  </si>
-  <si>
-    <t>みな</t>
   </si>
   <si>
     <t>山口玲</t>
@@ -127,7 +114,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -138,12 +125,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -164,11 +145,6 @@
       <color theme="1"/>
       <name val="Roboto"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="ArialMT"/>
     </font>
   </fonts>
   <fills count="2">
@@ -193,7 +169,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -203,13 +179,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -529,7 +499,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -539,26 +509,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>22</v>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>22</v>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -566,7 +536,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -574,63 +544,61 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>23</v>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>20</v>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>2</v>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -638,163 +606,157 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>5</v>
+      <c r="B14" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>6</v>
+      <c r="B15" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>7</v>
+      <c r="B16" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>8</v>
+      <c r="B17" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>9</v>
+      <c r="B18" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>10</v>
+      <c r="B19" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>25</v>
+      <c r="B20" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>11</v>
+      <c r="B21" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>12</v>
+      <c r="B22" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>13</v>
+      <c r="B23" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>14</v>
+      <c r="B24" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>27</v>
+      <c r="B25" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>21</v>
+      <c r="B26" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>26</v>
+      <c r="B27" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>19</v>
+      <c r="B28" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>16</v>
+      <c r="B29" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="B32" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/楓Duty.xlsx
+++ b/楓Duty.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawataryousuke/Downloads/12.duty_bot/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Ryosuke SSD/12.duty_bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC480D0-3504-3F45-956D-4738269EA189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C611AC-439F-E64B-8BB0-AC47E8D6E26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="1000" windowWidth="28300" windowHeight="17440" xr2:uid="{A7B9F7A0-58BE-114E-BBB9-CD43B769127A}"/>
+    <workbookView xWindow="-33920" yWindow="-3560" windowWidth="28300" windowHeight="15920" xr2:uid="{A7B9F7A0-58BE-114E-BBB9-CD43B769127A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>小野文哉</t>
   </si>
@@ -69,16 +69,10 @@
     <t>富澤天音</t>
   </si>
   <si>
-    <t>池田伊吹</t>
-  </si>
-  <si>
     <t>神山修造</t>
   </si>
   <si>
     <t>川田涼介</t>
-  </si>
-  <si>
-    <t>林健太郎</t>
   </si>
   <si>
     <t>山口洸翔</t>
@@ -499,7 +493,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -509,10 +503,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -520,7 +514,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -528,7 +522,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -536,7 +530,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -544,7 +538,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -552,15 +546,15 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -568,7 +562,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -576,21 +570,23 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -598,15 +594,15 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>9</v>
+      <c r="B13" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -614,7 +610,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -622,7 +618,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -630,7 +626,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -638,7 +634,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -646,7 +642,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -654,7 +650,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -662,7 +658,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -670,7 +666,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -678,7 +674,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -686,7 +682,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -694,7 +690,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -702,7 +698,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -710,15 +706,15 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>0</v>
+      <c r="B27" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -726,7 +722,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -734,26 +730,32 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>

--- a/楓Duty.xlsx
+++ b/楓Duty.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Ryosuke SSD/12.duty_bot/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawataryousuke/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C611AC-439F-E64B-8BB0-AC47E8D6E26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AD4682-D244-A24D-B85C-372055519E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33920" yWindow="-3560" windowWidth="28300" windowHeight="15920" xr2:uid="{A7B9F7A0-58BE-114E-BBB9-CD43B769127A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18880" xr2:uid="{A7B9F7A0-58BE-114E-BBB9-CD43B769127A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>小野文哉</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>氏家琉貴</t>
-  </si>
-  <si>
-    <t>羽賀尚生</t>
   </si>
   <si>
     <t>足立耕平</t>
@@ -102,6 +99,22 @@
   </si>
   <si>
     <t>兒島大志郎</t>
+  </si>
+  <si>
+    <t>山口玲, 日高泰聖</t>
+  </si>
+  <si>
+    <t>石井海成, Nicholas Tristan Aryasatyo</t>
+  </si>
+  <si>
+    <t>崎谷航平, Jun Seomun</t>
+  </si>
+  <si>
+    <t>羽賀尚生, 島田実</t>
+  </si>
+  <si>
+    <t>フロアミなので、みな</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -493,7 +506,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -503,10 +516,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -514,7 +527,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -522,7 +535,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -530,7 +543,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -538,7 +551,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -546,15 +559,15 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -562,7 +575,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -570,7 +583,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -578,7 +591,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -586,7 +599,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -594,7 +607,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -602,7 +615,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -610,7 +623,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -618,7 +631,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -626,15 +639,15 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>19</v>
+      <c r="B17" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -642,7 +655,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -650,7 +663,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -658,7 +671,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -666,7 +679,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -674,7 +687,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -682,7 +695,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -690,7 +703,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -698,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -706,15 +719,15 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>9</v>
+      <c r="B27" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -722,7 +735,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -730,7 +743,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -738,7 +751,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -746,16 +759,14 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B32" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>

--- a/楓Duty.xlsx
+++ b/楓Duty.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawataryousuke/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AD4682-D244-A24D-B85C-372055519E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB84F54-018B-A94C-8E9D-E024CAA0D37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18880" xr2:uid="{A7B9F7A0-58BE-114E-BBB9-CD43B769127A}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>渡部魁</t>
   </si>
   <si>
-    <t>崎谷航平</t>
-  </si>
-  <si>
     <t>白岩詩佑介</t>
   </si>
   <si>
@@ -101,20 +98,22 @@
     <t>兒島大志郎</t>
   </si>
   <si>
-    <t>山口玲, 日高泰聖</t>
-  </si>
-  <si>
-    <t>石井海成, Nicholas Tristan Aryasatyo</t>
-  </si>
-  <si>
     <t>崎谷航平, Jun Seomun</t>
   </si>
   <si>
-    <t>羽賀尚生, 島田実</t>
-  </si>
-  <si>
-    <t>フロアミなので、みな</t>
-    <phoneticPr fontId="3"/>
+    <t>羽賀尚生</t>
+  </si>
+  <si>
+    <t>島田実</t>
+  </si>
+  <si>
+    <t>豊島亮</t>
+  </si>
+  <si>
+    <t>日高泰聖</t>
+  </si>
+  <si>
+    <t>Nicholas Tristan Aryasatyo</t>
   </si>
 </sst>
 </file>
@@ -506,7 +505,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -516,10 +515,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -527,7 +526,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -535,7 +534,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -543,7 +542,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -551,7 +550,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -559,7 +558,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -567,15 +566,15 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>0</v>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -583,7 +582,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -591,7 +590,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -599,23 +598,21 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -623,7 +620,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -631,7 +628,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -639,15 +636,15 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>8</v>
+      <c r="B17" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -655,7 +652,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -663,7 +660,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -671,7 +668,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -679,7 +676,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -687,7 +684,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -695,7 +692,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -703,7 +700,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -711,7 +708,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -719,7 +716,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -727,7 +724,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -735,7 +732,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -743,7 +740,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -751,7 +748,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -759,14 +756,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>

--- a/楓Duty.xlsx
+++ b/楓Duty.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawataryousuke/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB84F54-018B-A94C-8E9D-E024CAA0D37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E487D3-150C-8D4D-BF85-7DF28467DAA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18880" xr2:uid="{A7B9F7A0-58BE-114E-BBB9-CD43B769127A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>小野文哉</t>
   </si>
@@ -98,9 +98,6 @@
     <t>兒島大志郎</t>
   </si>
   <si>
-    <t>崎谷航平, Jun Seomun</t>
-  </si>
-  <si>
     <t>羽賀尚生</t>
   </si>
   <si>
@@ -114,6 +111,12 @@
   </si>
   <si>
     <t>Nicholas Tristan Aryasatyo</t>
+  </si>
+  <si>
+    <t>Jun Seomun</t>
+  </si>
+  <si>
+    <t>崎谷航平</t>
   </si>
 </sst>
 </file>
@@ -505,7 +508,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -526,7 +529,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -534,7 +537,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -542,15 +545,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>22</v>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -558,7 +561,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -566,31 +569,29 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>7</v>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -598,21 +599,23 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -620,7 +623,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -628,7 +631,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -636,7 +639,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -644,7 +647,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -652,7 +655,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -660,7 +663,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -668,7 +671,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -676,7 +679,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -684,7 +687,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -692,7 +695,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -700,7 +703,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -708,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -716,7 +719,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -724,15 +727,15 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>4</v>
+      <c r="B28" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -740,7 +743,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -748,7 +751,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -756,16 +759,14 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="B32" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>

--- a/楓Duty.xlsx
+++ b/楓Duty.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawataryousuke/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E487D3-150C-8D4D-BF85-7DF28467DAA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFBB09F-353E-7649-9C5B-7C2ADB3F426D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18880" xr2:uid="{A7B9F7A0-58BE-114E-BBB9-CD43B769127A}"/>
   </bookViews>
@@ -34,13 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
-  <si>
-    <t>小野文哉</t>
-  </si>
-  <si>
-    <t>渡部魁</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>白岩詩佑介</t>
   </si>
@@ -48,28 +42,7 @@
     <t>三神佳誠</t>
   </si>
   <si>
-    <t>氏家琉貴</t>
-  </si>
-  <si>
-    <t>足立耕平</t>
-  </si>
-  <si>
-    <t>遠藤隼人</t>
-  </si>
-  <si>
-    <t>Ethan Virtudazo</t>
-  </si>
-  <si>
-    <t>富澤天音</t>
-  </si>
-  <si>
-    <t>神山修造</t>
-  </si>
-  <si>
     <t>川田涼介</t>
-  </si>
-  <si>
-    <t>山口洸翔</t>
   </si>
   <si>
     <t>day</t>
@@ -83,47 +56,20 @@
     <t>志塚惇希</t>
   </si>
   <si>
-    <t>小溝賢</t>
-  </si>
-  <si>
     <t>高野怜央</t>
   </si>
   <si>
-    <t>石井海成</t>
-  </si>
-  <si>
-    <t>山口玲</t>
-  </si>
-  <si>
     <t>兒島大志郎</t>
   </si>
   <si>
-    <t>羽賀尚生</t>
-  </si>
-  <si>
-    <t>島田実</t>
-  </si>
-  <si>
-    <t>豊島亮</t>
-  </si>
-  <si>
-    <t>日高泰聖</t>
-  </si>
-  <si>
     <t>Nicholas Tristan Aryasatyo</t>
-  </si>
-  <si>
-    <t>Jun Seomun</t>
-  </si>
-  <si>
-    <t>崎谷航平</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -149,12 +95,6 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Roboto"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -178,7 +118,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -186,9 +126,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -508,7 +445,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -518,10 +455,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -529,56 +466,46 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
@@ -591,176 +518,144 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="B19" s="2"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="B25" s="2"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">

--- a/楓Duty.xlsx
+++ b/楓Duty.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawataryousuke/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFBB09F-353E-7649-9C5B-7C2ADB3F426D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D989D3-056B-2F44-862F-241802F9C837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18880" xr2:uid="{A7B9F7A0-58BE-114E-BBB9-CD43B769127A}"/>
   </bookViews>
@@ -56,13 +56,13 @@
     <t>志塚惇希</t>
   </si>
   <si>
-    <t>高野怜央</t>
-  </si>
-  <si>
     <t>兒島大志郎</t>
   </si>
   <si>
     <t>Nicholas Tristan Aryasatyo</t>
+  </si>
+  <si>
+    <t>小野文哉</t>
   </si>
 </sst>
 </file>
@@ -445,7 +445,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -465,15 +465,15 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
@@ -491,15 +491,15 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
@@ -517,15 +517,15 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
@@ -543,15 +543,15 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
@@ -569,15 +569,15 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
@@ -595,15 +595,15 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
@@ -621,15 +621,15 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
@@ -647,15 +647,15 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">

--- a/楓Duty.xlsx
+++ b/楓Duty.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawataryousuke/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D989D3-056B-2F44-862F-241802F9C837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FACF86D-D34E-204A-8BB8-0073F55119C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18880" xr2:uid="{A7B9F7A0-58BE-114E-BBB9-CD43B769127A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>白岩詩佑介</t>
   </si>
@@ -63,6 +63,63 @@
   </si>
   <si>
     <t>小野文哉</t>
+  </si>
+  <si>
+    <t>豊島亮</t>
+  </si>
+  <si>
+    <t>日高泰聖</t>
+  </si>
+  <si>
+    <t>石井海成</t>
+  </si>
+  <si>
+    <t>小溝賢</t>
+  </si>
+  <si>
+    <t>渡部魁</t>
+  </si>
+  <si>
+    <t>崎谷航平</t>
+  </si>
+  <si>
+    <t>島田実</t>
+  </si>
+  <si>
+    <t>足立耕平</t>
+  </si>
+  <si>
+    <t>遠藤隼人</t>
+  </si>
+  <si>
+    <t>富澤天音</t>
+  </si>
+  <si>
+    <t>神山修造</t>
+  </si>
+  <si>
+    <t>兒島大志郎</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>豊島亮</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">山口玲, </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>羽賀尚生</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>山口玲さんと、 Cox Matthew Jonah</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>氏家琉貴さんと、Hansen Jakob U</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -444,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F72E497-58E9-8D49-A916-0EED2DC06C7E}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -465,33 +522,41 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
@@ -505,156 +570,190 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:2">

--- a/楓Duty.xlsx
+++ b/楓Duty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawataryousuke/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FACF86D-D34E-204A-8BB8-0073F55119C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCC569C-5805-FF4F-BACE-C7107183721E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18880" xr2:uid="{A7B9F7A0-58BE-114E-BBB9-CD43B769127A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>白岩詩佑介</t>
   </si>
@@ -98,28 +98,19 @@
     <t>神山修造</t>
   </si>
   <si>
-    <t>兒島大志郎</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>豊島亮</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">山口玲, </t>
-    <phoneticPr fontId="3"/>
+    <t>山口玲, Cox Matthew Jonah</t>
+  </si>
+  <si>
+    <t>氏家琉貴, Hansen Jakob U</t>
   </si>
   <si>
     <t>羽賀尚生</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>山口玲さんと、 Cox Matthew Jonah</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>氏家琉貴さんと、Hansen Jakob U</t>
-    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>山口玲</t>
+  </si>
+  <si>
+    <t>氏家琉貴</t>
   </si>
 </sst>
 </file>
@@ -502,7 +493,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -523,7 +514,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -531,7 +522,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -539,7 +530,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -571,7 +562,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -579,7 +570,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -587,7 +578,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -595,7 +586,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -603,7 +594,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -611,7 +602,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -619,7 +610,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -633,7 +624,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -641,7 +632,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -649,7 +640,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -657,7 +648,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -665,7 +656,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -673,7 +664,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -681,7 +672,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -689,7 +680,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -697,7 +688,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -705,7 +696,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -713,7 +704,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -721,7 +712,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -729,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -737,7 +728,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -745,7 +736,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -753,7 +744,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2">

--- a/楓Duty.xlsx
+++ b/楓Duty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawataryousuke/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCC569C-5805-FF4F-BACE-C7107183721E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C5F3B2-9069-1D4D-9B46-BE858BC7AB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18880" xr2:uid="{A7B9F7A0-58BE-114E-BBB9-CD43B769127A}"/>
   </bookViews>
@@ -117,7 +117,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -143,6 +143,12 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -166,7 +172,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -174,6 +180,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -490,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F72E497-58E9-8D49-A916-0EED2DC06C7E}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -554,7 +563,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -562,7 +571,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -627,7 +636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -635,7 +644,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -643,7 +652,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -651,7 +660,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -659,7 +668,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -667,7 +676,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -675,7 +684,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -683,7 +692,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -691,7 +700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -699,7 +708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -707,7 +716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -715,7 +724,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -723,23 +732,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="B29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>24</v>
+      </c>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -747,7 +757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>31</v>
       </c>

--- a/楓Duty.xlsx
+++ b/楓Duty.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawataryousuke/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C5F3B2-9069-1D4D-9B46-BE858BC7AB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A22820-0C62-1649-9722-DA1F52AEA4C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18880" xr2:uid="{A7B9F7A0-58BE-114E-BBB9-CD43B769127A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>白岩詩佑介</t>
   </si>
@@ -98,12 +98,6 @@
     <t>神山修造</t>
   </si>
   <si>
-    <t>山口玲, Cox Matthew Jonah</t>
-  </si>
-  <si>
-    <t>氏家琉貴, Hansen Jakob U</t>
-  </si>
-  <si>
     <t>羽賀尚生</t>
   </si>
   <si>
@@ -111,13 +105,19 @@
   </si>
   <si>
     <t>氏家琉貴</t>
+  </si>
+  <si>
+    <t>Cox Matthew Jonah</t>
+  </si>
+  <si>
+    <t>Hansen Jakob U</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -143,12 +143,6 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -172,7 +166,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -180,9 +174,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -502,7 +493,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="B2" sqref="B2:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -523,7 +514,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -531,7 +522,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -539,7 +530,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -547,7 +538,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -555,7 +546,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -563,7 +554,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -571,7 +562,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -579,7 +570,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -587,7 +578,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -595,7 +586,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -603,37 +594,37 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -641,7 +632,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -649,7 +640,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -657,7 +648,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -665,7 +656,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -673,7 +664,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -681,7 +672,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -689,7 +680,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -697,7 +688,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -705,7 +696,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -713,7 +704,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -721,7 +712,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -729,15 +720,15 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>5</v>
+      <c r="B29" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -745,7 +736,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C30" s="2"/>
     </row>
@@ -754,14 +745,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>

--- a/楓Duty.xlsx
+++ b/楓Duty.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawataryousuke/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A22820-0C62-1649-9722-DA1F52AEA4C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86C8B2A-3C28-FB4E-92BC-99B68D16BADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18880" xr2:uid="{A7B9F7A0-58BE-114E-BBB9-CD43B769127A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>白岩詩佑介</t>
   </si>
@@ -493,7 +493,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B32"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -514,7 +514,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -522,7 +522,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -530,7 +530,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -538,7 +538,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -546,7 +546,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -554,7 +554,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -562,7 +562,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -570,23 +570,21 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -594,21 +592,23 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -616,7 +616,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -624,7 +624,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -632,7 +632,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -640,7 +640,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -648,7 +648,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -656,7 +656,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -664,7 +664,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -672,7 +672,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -680,7 +680,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -688,7 +688,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -696,7 +696,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -704,7 +704,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -712,7 +712,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -728,7 +728,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -736,7 +736,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C30" s="2"/>
     </row>
@@ -745,16 +745,14 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="B32" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>

--- a/楓Duty.xlsx
+++ b/楓Duty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawataryousuke/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86C8B2A-3C28-FB4E-92BC-99B68D16BADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0999D71B-6D5E-5047-A366-422057494A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18880" xr2:uid="{A7B9F7A0-58BE-114E-BBB9-CD43B769127A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>白岩詩佑介</t>
   </si>
@@ -101,9 +101,6 @@
     <t>羽賀尚生</t>
   </si>
   <si>
-    <t>山口玲</t>
-  </si>
-  <si>
     <t>氏家琉貴</t>
   </si>
   <si>
@@ -111,6 +108,10 @@
   </si>
   <si>
     <t>Hansen Jakob U</t>
+  </si>
+  <si>
+    <t>Cox Matthew Jonah</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -493,7 +494,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -514,7 +515,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -522,7 +523,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -530,7 +531,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -538,7 +539,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -546,7 +547,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -554,7 +555,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -562,7 +563,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -570,21 +571,23 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -592,7 +595,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -600,7 +603,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -608,23 +611,21 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -632,7 +633,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -640,7 +641,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -648,7 +649,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -656,7 +657,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -664,7 +665,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -672,7 +673,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -680,7 +681,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -688,55 +689,49 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="B25" s="2"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C30" s="2"/>
     </row>
@@ -744,15 +739,15 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>

--- a/楓Duty.xlsx
+++ b/楓Duty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawataryousuke/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0999D71B-6D5E-5047-A366-422057494A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08EE415-3463-2547-BEB9-9D37550ADDBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18880" xr2:uid="{A7B9F7A0-58BE-114E-BBB9-CD43B769127A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>白岩詩佑介</t>
   </si>
@@ -95,9 +95,6 @@
     <t>富澤天音</t>
   </si>
   <si>
-    <t>神山修造</t>
-  </si>
-  <si>
     <t>羽賀尚生</t>
   </si>
   <si>
@@ -110,8 +107,7 @@
     <t>Hansen Jakob U</t>
   </si>
   <si>
-    <t>Cox Matthew Jonah</t>
-    <phoneticPr fontId="3"/>
+    <t>Yunjae</t>
   </si>
 </sst>
 </file>
@@ -494,7 +490,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -514,48 +510,42 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -563,7 +553,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -571,7 +561,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -579,7 +569,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -587,23 +577,21 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -611,21 +599,23 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -633,7 +623,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -641,7 +631,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -649,7 +639,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -657,7 +647,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -665,7 +655,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -673,7 +663,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -681,7 +671,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -689,49 +679,55 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C30" s="2"/>
     </row>
@@ -739,14 +735,16 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/楓Duty.xlsx
+++ b/楓Duty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawataryousuke/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08EE415-3463-2547-BEB9-9D37550ADDBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FF407F-F676-8C4F-B262-B40AF905AF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18880" xr2:uid="{A7B9F7A0-58BE-114E-BBB9-CD43B769127A}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>三神佳誠</t>
   </si>
   <si>
-    <t>川田涼介</t>
-  </si>
-  <si>
     <t>day</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -108,6 +105,9 @@
   </si>
   <si>
     <t>Yunjae</t>
+  </si>
+  <si>
+    <t>神山修造</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -500,52 +500,58 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -553,23 +559,21 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -577,21 +581,23 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -599,7 +605,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -607,7 +613,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -615,7 +621,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -623,7 +629,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -631,7 +637,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -639,7 +645,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -647,7 +653,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -655,7 +661,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -663,7 +669,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -671,7 +677,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -679,7 +685,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -687,7 +693,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -695,7 +701,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -703,7 +709,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -711,7 +717,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -719,33 +725,27 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="B32" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>

--- a/楓Duty.xlsx
+++ b/楓Duty.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawataryousuke/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FF407F-F676-8C4F-B262-B40AF905AF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360B0182-40CE-0841-BC80-8C801476D0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18880" xr2:uid="{A7B9F7A0-58BE-114E-BBB9-CD43B769127A}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
-  <si>
-    <t>白岩詩佑介</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>三神佳誠</t>
   </si>
@@ -86,12 +83,6 @@
     <t>足立耕平</t>
   </si>
   <si>
-    <t>遠藤隼人</t>
-  </si>
-  <si>
-    <t>富澤天音</t>
-  </si>
-  <si>
     <t>羽賀尚生</t>
   </si>
   <si>
@@ -108,6 +99,9 @@
   </si>
   <si>
     <t>神山修造</t>
+  </si>
+  <si>
+    <t>川田涼介</t>
   </si>
 </sst>
 </file>
@@ -490,7 +484,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B2" sqref="B2:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -500,10 +494,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -511,7 +505,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -519,7 +513,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -527,7 +521,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -535,7 +529,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -543,7 +537,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -551,7 +545,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -559,21 +553,23 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -581,7 +577,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -589,7 +585,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -597,7 +593,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -605,7 +601,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -613,7 +609,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -621,7 +617,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -629,7 +625,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -637,7 +633,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -645,7 +641,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -653,7 +649,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -661,7 +657,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -669,7 +665,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -677,7 +673,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -685,7 +681,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -693,7 +689,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -701,7 +697,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -709,7 +705,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -717,7 +713,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -725,27 +721,33 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>

--- a/楓Duty.xlsx
+++ b/楓Duty.xlsx
@@ -27,7 +27,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="53">
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> name</t>
+  </si>
   <si>
     <t>三神佳誠</t>
   </si>
@@ -668,200 +674,200 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1">
-        <v>1.0</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>13</v>
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>15</v>
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1">
-        <v>22.0</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>1</v>
+        <v>21.0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1">
-        <v>23.0</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>20</v>
+        <v>22.0</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1">
-        <v>24.0</v>
-      </c>
-      <c r="B24" s="1">
-        <v>27.0</v>
+        <v>23.0</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
       <c r="B25" s="1">
         <v>27.0</v>
@@ -869,7 +875,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="B26" s="1">
         <v>27.0</v>
@@ -877,7 +883,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="B27" s="1">
         <v>27.0</v>
@@ -885,30 +891,38 @@
     </row>
     <row r="28">
       <c r="A28" s="1">
-        <v>28.0</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>21</v>
+        <v>27.0</v>
+      </c>
+      <c r="B28" s="1">
+        <v>27.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1">
         <v>31.0</v>
       </c>
     </row>
@@ -936,19 +950,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -965,7 +979,7 @@
         <v>44775.0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -1003,7 +1017,7 @@
         <v>44779.0</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -1040,7 +1054,7 @@
         <v>44783.0</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="8"/>
@@ -1078,7 +1092,7 @@
         <v>44787.0</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -1116,7 +1130,7 @@
         <v>44791.0</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -1154,7 +1168,7 @@
         <v>44795.0</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -1192,7 +1206,7 @@
         <v>44799.0</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -1229,7 +1243,7 @@
         <v>44803.0</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
@@ -1271,19 +1285,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -1291,7 +1305,7 @@
         <v>44743.0</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -1329,7 +1343,7 @@
         <v>44747.0</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -1366,7 +1380,7 @@
         <v>44751.0</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -1404,7 +1418,7 @@
         <v>44755.0</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -1442,7 +1456,7 @@
         <v>44759.0</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -1480,7 +1494,7 @@
         <v>44763.0</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -1518,7 +1532,7 @@
         <v>44767.0</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -1556,7 +1570,7 @@
         <v>44771.0</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
@@ -1607,19 +1621,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F1" s="18"/>
     </row>
@@ -1628,7 +1642,7 @@
         <v>44713.0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -1640,7 +1654,7 @@
         <v>44714.0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -1652,7 +1666,7 @@
         <v>44715.0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -1664,7 +1678,7 @@
         <v>44716.0</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -1676,7 +1690,7 @@
         <v>44717.0</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -1688,7 +1702,7 @@
         <v>44718.0</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -1700,7 +1714,7 @@
         <v>44719.0</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="8"/>
@@ -1721,7 +1735,7 @@
         <v>44721.0</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -1733,7 +1747,7 @@
         <v>44722.0</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="8"/>
@@ -1745,7 +1759,7 @@
         <v>44723.0</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -1757,7 +1771,7 @@
         <v>44724.0</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -1769,7 +1783,7 @@
         <v>44725.0</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -1781,7 +1795,7 @@
         <v>44726.0</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -1793,7 +1807,7 @@
         <v>44727.0</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -1805,7 +1819,7 @@
         <v>44728.0</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -1817,7 +1831,7 @@
         <v>44729.0</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -1829,7 +1843,7 @@
         <v>44730.0</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -1841,7 +1855,7 @@
         <v>44731.0</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -1853,7 +1867,7 @@
         <v>44732.0</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -1865,7 +1879,7 @@
         <v>44733.0</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -1877,7 +1891,7 @@
         <v>44734.0</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -1889,7 +1903,7 @@
         <v>44735.0</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -1901,7 +1915,7 @@
         <v>44736.0</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -1913,7 +1927,7 @@
         <v>44737.0</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -1925,7 +1939,7 @@
         <v>44738.0</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -1937,7 +1951,7 @@
         <v>44739.0</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -1949,7 +1963,7 @@
         <v>44740.0</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="8"/>
@@ -1961,7 +1975,7 @@
         <v>44741.0</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
@@ -1973,7 +1987,7 @@
         <v>44742.0</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
@@ -2015,19 +2029,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -2035,7 +2049,7 @@
         <v>44682.0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -2046,7 +2060,7 @@
         <v>44683.0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -2057,7 +2071,7 @@
         <v>44684.0</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -2068,7 +2082,7 @@
         <v>44685.0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -2079,7 +2093,7 @@
         <v>44686.0</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -2090,7 +2104,7 @@
         <v>44687.0</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -2101,7 +2115,7 @@
         <v>44688.0</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="8"/>
@@ -2112,7 +2126,7 @@
         <v>44689.0</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -2123,7 +2137,7 @@
         <v>44690.0</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -2134,7 +2148,7 @@
         <v>44691.0</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="8"/>
@@ -2154,7 +2168,7 @@
         <v>44693.0</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -2165,7 +2179,7 @@
         <v>44694.0</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -2176,7 +2190,7 @@
         <v>44695.0</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -2187,7 +2201,7 @@
         <v>44696.0</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -2198,7 +2212,7 @@
         <v>44697.0</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -2209,7 +2223,7 @@
         <v>44698.0</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -2220,7 +2234,7 @@
         <v>44699.0</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -2231,7 +2245,7 @@
         <v>44700.0</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -2242,7 +2256,7 @@
         <v>44701.0</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -2253,7 +2267,7 @@
         <v>44702.0</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -2264,7 +2278,7 @@
         <v>44703.0</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -2275,7 +2289,7 @@
         <v>44704.0</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -2286,7 +2300,7 @@
         <v>44705.0</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -2297,7 +2311,7 @@
         <v>44706.0</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -2308,7 +2322,7 @@
         <v>44707.0</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -2319,7 +2333,7 @@
         <v>44708.0</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -2330,7 +2344,7 @@
         <v>44709.0</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="8"/>
@@ -2341,7 +2355,7 @@
         <v>44710.0</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
@@ -2352,7 +2366,7 @@
         <v>44711.0</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
@@ -2363,7 +2377,7 @@
         <v>44712.0</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="8"/>
@@ -2396,19 +2410,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -2416,7 +2430,7 @@
         <v>44652.0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -2427,7 +2441,7 @@
         <v>44653.0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -2438,7 +2452,7 @@
         <v>44654.0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -2449,7 +2463,7 @@
         <v>44655.0</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -2460,7 +2474,7 @@
         <v>44656.0</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -2471,7 +2485,7 @@
         <v>44657.0</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -2482,7 +2496,7 @@
         <v>44658.0</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="8"/>
@@ -2493,7 +2507,7 @@
         <v>44659.0</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -2504,7 +2518,7 @@
         <v>44660.0</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -2515,7 +2529,7 @@
         <v>44661.0</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="8"/>
@@ -2526,7 +2540,7 @@
         <v>44662.0</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -2537,7 +2551,7 @@
         <v>44663.0</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -2556,7 +2570,7 @@
         <v>44665.0</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -2567,7 +2581,7 @@
         <v>44666.0</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -2578,7 +2592,7 @@
         <v>44667.0</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -2589,7 +2603,7 @@
         <v>44668.0</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -2600,7 +2614,7 @@
         <v>44669.0</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -2611,7 +2625,7 @@
         <v>44670.0</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -2622,7 +2636,7 @@
         <v>44671.0</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -2633,7 +2647,7 @@
         <v>44672.0</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -2644,7 +2658,7 @@
         <v>44673.0</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -2655,7 +2669,7 @@
         <v>44674.0</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -2666,7 +2680,7 @@
         <v>44675.0</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -2677,7 +2691,7 @@
         <v>44676.0</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -2688,7 +2702,7 @@
         <v>44677.0</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -2699,7 +2713,7 @@
         <v>44678.0</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -2710,7 +2724,7 @@
         <v>44679.0</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="8"/>
@@ -2721,7 +2735,7 @@
         <v>44680.0</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
@@ -2732,7 +2746,7 @@
         <v>44681.0</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
@@ -2772,22 +2786,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -2798,7 +2812,7 @@
         <v>273.0</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
@@ -2812,7 +2826,7 @@
         <v>252.0</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -2826,7 +2840,7 @@
         <v>283.0</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -2840,7 +2854,7 @@
         <v>262.0</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -2854,7 +2868,7 @@
         <v>275.0</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -2868,7 +2882,7 @@
         <v>265.0</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -2882,7 +2896,7 @@
         <v>251.0</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="8"/>
@@ -2896,7 +2910,7 @@
         <v>283.0</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -2910,7 +2924,7 @@
         <v>255.0</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -2924,7 +2938,7 @@
         <v>263.0</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="8"/>
@@ -2938,7 +2952,7 @@
         <v>253.0</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -2952,7 +2966,7 @@
         <v>272.0</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -2966,7 +2980,7 @@
         <v>262.0</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -2980,7 +2994,7 @@
         <v>284.0</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -2994,7 +3008,7 @@
         <v>264.0</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -3008,7 +3022,7 @@
         <v>282.0</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -3022,7 +3036,7 @@
         <v>272.0</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -3036,7 +3050,7 @@
         <v>255.0</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -3050,7 +3064,7 @@
         <v>252.0</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -3064,7 +3078,7 @@
         <v>271.0</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -3078,7 +3092,7 @@
         <v>273.0</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -3092,7 +3106,7 @@
         <v>252.0</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -3106,7 +3120,7 @@
         <v>283.0</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -3120,7 +3134,7 @@
         <v>262.0</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -3134,7 +3148,7 @@
         <v>275.0</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -3148,7 +3162,7 @@
         <v>265.0</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -3162,7 +3176,7 @@
         <v>251.0</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -3176,7 +3190,7 @@
         <v>283.0</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="8"/>
@@ -3190,7 +3204,7 @@
         <v>281.0</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="8"/>
@@ -3204,7 +3218,7 @@
         <v>263.0</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="8"/>
@@ -3218,7 +3232,7 @@
         <v>253.0</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="8"/>
@@ -3248,22 +3262,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -3274,7 +3288,7 @@
         <v>253.0</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
@@ -3288,7 +3302,7 @@
         <v>272.0</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -3302,7 +3316,7 @@
         <v>255.0</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -3316,7 +3330,7 @@
         <v>252.0</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -3330,7 +3344,7 @@
         <v>271.0</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -3344,7 +3358,7 @@
         <v>273.0</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -3358,7 +3372,7 @@
         <v>252.0</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="8"/>
@@ -3372,7 +3386,7 @@
         <v>283.0</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -3395,7 +3409,7 @@
         <v>262.0</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="8"/>
@@ -3409,7 +3423,7 @@
         <v>275.0</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -3423,7 +3437,7 @@
         <v>265.0</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -3437,7 +3451,7 @@
         <v>251.0</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -3451,7 +3465,7 @@
         <v>283.0</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -3465,7 +3479,7 @@
         <v>281.0</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -3479,7 +3493,7 @@
         <v>283.0</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -3493,7 +3507,7 @@
         <v>263.0</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -3507,7 +3521,7 @@
         <v>253.0</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -3521,7 +3535,7 @@
         <v>272.0</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -3535,7 +3549,7 @@
         <v>262.0</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -3549,7 +3563,7 @@
         <v>284.0</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -3563,7 +3577,7 @@
         <v>264.0</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -3577,7 +3591,7 @@
         <v>282.0</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -3591,7 +3605,7 @@
         <v>253.0</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -3605,7 +3619,7 @@
         <v>272.0</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -3619,7 +3633,7 @@
         <v>255.0</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -3633,7 +3647,7 @@
         <v>252.0</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -3647,7 +3661,7 @@
         <v>271.0</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="8"/>
@@ -3701,22 +3715,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -3767,7 +3781,7 @@
         <v>264.0</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -3781,7 +3795,7 @@
         <v>282.0</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -3795,7 +3809,7 @@
         <v>253.0</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="8"/>
@@ -3809,7 +3823,7 @@
         <v>272.0</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -3823,7 +3837,7 @@
         <v>255.0</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -3837,7 +3851,7 @@
         <v>252.0</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="8"/>
@@ -3851,7 +3865,7 @@
         <v>271.0</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -3865,7 +3879,7 @@
         <v>273.0</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -3879,7 +3893,7 @@
         <v>252.0</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -3893,7 +3907,7 @@
         <v>283.0</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -3907,7 +3921,7 @@
         <v>262.0</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -3921,7 +3935,7 @@
         <v>275.0</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -3935,7 +3949,7 @@
         <v>265.0</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -3949,7 +3963,7 @@
         <v>251.0</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -3961,7 +3975,7 @@
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="27" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -3975,7 +3989,7 @@
         <v>281.0</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -3989,7 +4003,7 @@
         <v>283.0</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -4003,7 +4017,7 @@
         <v>282.0</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -4017,7 +4031,7 @@
         <v>271.0</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -4031,7 +4045,7 @@
         <v>263.0</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -4045,7 +4059,7 @@
         <v>253.0</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -4059,7 +4073,7 @@
         <v>272.0</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -4073,7 +4087,7 @@
         <v>262.0</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -4087,7 +4101,7 @@
         <v>284.0</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -4101,7 +4115,7 @@
         <v>285.0</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -4115,7 +4129,7 @@
         <v>264.0</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -4129,7 +4143,7 @@
         <v>282.0</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -4159,19 +4173,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -4179,7 +4193,7 @@
         <v>45017.0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -4190,7 +4204,7 @@
         <v>45018.0</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -4201,7 +4215,7 @@
         <v>45019.0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -4212,7 +4226,7 @@
         <v>45020.0</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -4223,7 +4237,7 @@
         <v>45021.0</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -4234,7 +4248,7 @@
         <v>45022.0</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -4245,7 +4259,7 @@
         <v>45023.0</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="8"/>
@@ -4256,7 +4270,7 @@
         <v>45024.0</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -4267,7 +4281,7 @@
         <v>45025.0</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -4278,7 +4292,7 @@
         <v>45026.0</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="8"/>
@@ -4289,7 +4303,7 @@
         <v>45027.0</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -4308,7 +4322,7 @@
         <v>45029.0</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -4319,7 +4333,7 @@
         <v>45030.0</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -4330,7 +4344,7 @@
         <v>45031.0</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -4341,7 +4355,7 @@
         <v>45032.0</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
@@ -4352,7 +4366,7 @@
         <v>45033.0</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -4363,7 +4377,7 @@
         <v>45034.0</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -4374,7 +4388,7 @@
         <v>45035.0</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -4385,7 +4399,7 @@
         <v>45036.0</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -4396,7 +4410,7 @@
         <v>45037.0</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -4407,7 +4421,7 @@
         <v>45038.0</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -4418,7 +4432,7 @@
         <v>45039.0</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -4473,7 +4487,7 @@
         <v>45044.0</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="8"/>
@@ -4484,7 +4498,7 @@
         <v>45045.0</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
@@ -4495,7 +4509,7 @@
         <v>45046.0</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
@@ -4539,19 +4553,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -4559,7 +4573,7 @@
         <v>45017.0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -4570,7 +4584,7 @@
         <v>44987.0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -4581,7 +4595,7 @@
         <v>44988.0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -4592,7 +4606,7 @@
         <v>44989.0</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -4603,7 +4617,7 @@
         <v>44990.0</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -4614,7 +4628,7 @@
         <v>44991.0</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -4625,7 +4639,7 @@
         <v>44992.0</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="8"/>
@@ -4636,7 +4650,7 @@
         <v>44993.0</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -4647,7 +4661,7 @@
         <v>44994.0</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -4658,7 +4672,7 @@
         <v>44995.0</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="8"/>
@@ -4669,7 +4683,7 @@
         <v>44996.0</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -4680,7 +4694,7 @@
         <v>44997.0</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -4691,7 +4705,7 @@
         <v>44998.0</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -4702,7 +4716,7 @@
         <v>44999.0</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -4713,7 +4727,7 @@
         <v>45000.0</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -4724,7 +4738,7 @@
         <v>45001.0</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
@@ -4735,7 +4749,7 @@
         <v>45002.0</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -4746,7 +4760,7 @@
         <v>45003.0</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -4757,7 +4771,7 @@
         <v>45004.0</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -4768,7 +4782,7 @@
         <v>45005.0</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -4779,7 +4793,7 @@
         <v>45006.0</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -4790,7 +4804,7 @@
         <v>45007.0</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -4801,7 +4815,7 @@
         <v>45008.0</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -4812,7 +4826,7 @@
         <v>45009.0</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -4823,7 +4837,7 @@
         <v>45010.0</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -4834,7 +4848,7 @@
         <v>45011.0</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -4845,7 +4859,7 @@
         <v>45012.0</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -4856,7 +4870,7 @@
         <v>45013.0</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="8"/>
@@ -4867,7 +4881,7 @@
         <v>45014.0</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
@@ -4878,7 +4892,7 @@
         <v>45015.0</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
@@ -4889,7 +4903,7 @@
         <v>45016.0</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="8"/>
@@ -4922,19 +4936,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -4942,7 +4956,7 @@
         <v>44958.0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -4953,7 +4967,7 @@
         <v>44959.0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -4964,7 +4978,7 @@
         <v>44960.0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -4975,7 +4989,7 @@
         <v>44961.0</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -4986,7 +5000,7 @@
         <v>44962.0</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -4997,7 +5011,7 @@
         <v>44963.0</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -5008,7 +5022,7 @@
         <v>44964.0</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="8"/>
@@ -5027,7 +5041,7 @@
         <v>44966.0</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -5038,7 +5052,7 @@
         <v>44967.0</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="8"/>
@@ -5049,7 +5063,7 @@
         <v>44968.0</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -5060,7 +5074,7 @@
         <v>44969.0</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -5071,7 +5085,7 @@
         <v>44970.0</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -5082,7 +5096,7 @@
         <v>44971.0</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -5093,7 +5107,7 @@
         <v>44972.0</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -5104,7 +5118,7 @@
         <v>44973.0</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
@@ -5115,7 +5129,7 @@
         <v>44974.0</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -5126,7 +5140,7 @@
         <v>44975.0</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -5137,7 +5151,7 @@
         <v>44976.0</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -5148,7 +5162,7 @@
         <v>44977.0</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -5159,7 +5173,7 @@
         <v>44978.0</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -5170,7 +5184,7 @@
         <v>44979.0</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -5181,7 +5195,7 @@
         <v>44980.0</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -5192,7 +5206,7 @@
         <v>44981.0</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -5203,7 +5217,7 @@
         <v>44982.0</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -5214,7 +5228,7 @@
         <v>44983.0</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -5225,7 +5239,7 @@
         <v>44984.0</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -5236,7 +5250,7 @@
         <v>44985.0</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="8"/>
@@ -5290,19 +5304,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -5319,7 +5333,7 @@
         <v>44928.0</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -5339,7 +5353,7 @@
         <v>44930.0</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -5359,7 +5373,7 @@
         <v>44932.0</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -5370,7 +5384,7 @@
         <v>44933.0</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="8"/>
@@ -5381,7 +5395,7 @@
         <v>44934.0</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -5392,7 +5406,7 @@
         <v>44935.0</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -5403,7 +5417,7 @@
         <v>44936.0</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="8"/>
@@ -5422,7 +5436,7 @@
         <v>44938.0</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -5433,7 +5447,7 @@
         <v>44939.0</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -5444,7 +5458,7 @@
         <v>44940.0</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -5455,7 +5469,7 @@
         <v>44941.0</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -5466,7 +5480,7 @@
         <v>44942.0</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
@@ -5477,7 +5491,7 @@
         <v>44943.0</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -5488,7 +5502,7 @@
         <v>44944.0</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -5499,7 +5513,7 @@
         <v>44945.0</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -5510,7 +5524,7 @@
         <v>44946.0</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -5521,7 +5535,7 @@
         <v>44947.0</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -5532,7 +5546,7 @@
         <v>44948.0</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -5543,7 +5557,7 @@
         <v>44949.0</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -5554,7 +5568,7 @@
         <v>44950.0</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -5565,7 +5579,7 @@
         <v>44951.0</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -5576,7 +5590,7 @@
         <v>44952.0</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -5587,7 +5601,7 @@
         <v>44953.0</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -5598,7 +5612,7 @@
         <v>44954.0</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="8"/>
@@ -5609,7 +5623,7 @@
         <v>44955.0</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
@@ -5620,7 +5634,7 @@
         <v>44956.0</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
@@ -5631,7 +5645,7 @@
         <v>44957.0</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="8"/>
@@ -5664,19 +5678,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -5684,7 +5698,7 @@
         <v>44896.0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -5695,7 +5709,7 @@
         <v>44897.0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -5706,7 +5720,7 @@
         <v>44898.0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -5717,7 +5731,7 @@
         <v>44899.0</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -5728,7 +5742,7 @@
         <v>44900.0</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -5739,7 +5753,7 @@
         <v>44901.0</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -5750,7 +5764,7 @@
         <v>44902.0</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="8"/>
@@ -5761,7 +5775,7 @@
         <v>44903.0</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -5772,7 +5786,7 @@
         <v>44904.0</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -5783,7 +5797,7 @@
         <v>44905.0</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="8"/>
@@ -5794,7 +5808,7 @@
         <v>44906.0</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -5805,7 +5819,7 @@
         <v>44907.0</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -5816,7 +5830,7 @@
         <v>44908.0</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -5835,7 +5849,7 @@
         <v>44910.0</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -5846,7 +5860,7 @@
         <v>44911.0</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
@@ -5857,7 +5871,7 @@
         <v>44912.0</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -5868,7 +5882,7 @@
         <v>44913.0</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -5879,7 +5893,7 @@
         <v>44914.0</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -5890,7 +5904,7 @@
         <v>44915.0</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -5901,7 +5915,7 @@
         <v>44916.0</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -5912,7 +5926,7 @@
         <v>44917.0</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -5923,7 +5937,7 @@
         <v>44918.0</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -5942,7 +5956,7 @@
         <v>44920.0</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -5962,7 +5976,7 @@
         <v>44922.0</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -5982,7 +5996,7 @@
         <v>44924.0</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
@@ -6002,7 +6016,7 @@
         <v>44926.0</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="8"/>
@@ -6035,19 +6049,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -6055,7 +6069,7 @@
         <v>44866.0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -6066,7 +6080,7 @@
         <v>44867.0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -6077,7 +6091,7 @@
         <v>44868.0</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -6088,7 +6102,7 @@
         <v>44869.0</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -6099,7 +6113,7 @@
         <v>44870.0</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -6110,7 +6124,7 @@
         <v>44871.0</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -6121,7 +6135,7 @@
         <v>44872.0</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="8"/>
@@ -6132,7 +6146,7 @@
         <v>44873.0</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -6152,7 +6166,7 @@
         <v>44875.0</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="8"/>
@@ -6163,7 +6177,7 @@
         <v>44876.0</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -6174,7 +6188,7 @@
         <v>44877.0</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -6185,7 +6199,7 @@
         <v>44878.0</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -6196,7 +6210,7 @@
         <v>44879.0</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -6207,7 +6221,7 @@
         <v>44880.0</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -6218,7 +6232,7 @@
         <v>44881.0</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
@@ -6229,7 +6243,7 @@
         <v>44882.0</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -6240,7 +6254,7 @@
         <v>44883.0</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -6251,7 +6265,7 @@
         <v>44884.0</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -6262,7 +6276,7 @@
         <v>44885.0</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -6273,7 +6287,7 @@
         <v>44886.0</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -6284,7 +6298,7 @@
         <v>44887.0</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -6295,7 +6309,7 @@
         <v>44888.0</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -6306,7 +6320,7 @@
         <v>44889.0</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -6317,7 +6331,7 @@
         <v>44890.0</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -6328,7 +6342,7 @@
         <v>44891.0</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -6339,7 +6353,7 @@
         <v>44892.0</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -6350,7 +6364,7 @@
         <v>44893.0</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="8"/>
@@ -6361,7 +6375,7 @@
         <v>44894.0</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
@@ -6372,7 +6386,7 @@
         <v>44895.0</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
@@ -6412,19 +6426,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -6432,7 +6446,7 @@
         <v>44835.0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -6443,7 +6457,7 @@
         <v>44836.0</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -6454,7 +6468,7 @@
         <v>44837.0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -6465,7 +6479,7 @@
         <v>44838.0</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -6476,7 +6490,7 @@
         <v>44839.0</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -6487,7 +6501,7 @@
         <v>44840.0</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -6498,7 +6512,7 @@
         <v>44841.0</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="8"/>
@@ -6509,7 +6523,7 @@
         <v>44842.0</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -6520,7 +6534,7 @@
         <v>44843.0</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -6531,7 +6545,7 @@
         <v>44844.0</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="8"/>
@@ -6542,7 +6556,7 @@
         <v>44845.0</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -6562,7 +6576,7 @@
         <v>44847.0</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -6573,7 +6587,7 @@
         <v>44848.0</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -6584,7 +6598,7 @@
         <v>44849.0</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -6595,7 +6609,7 @@
         <v>44850.0</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -6606,7 +6620,7 @@
         <v>44851.0</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -6617,7 +6631,7 @@
         <v>44852.0</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -6628,7 +6642,7 @@
         <v>44853.0</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -6639,7 +6653,7 @@
         <v>44854.0</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -6650,7 +6664,7 @@
         <v>44855.0</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -6661,7 +6675,7 @@
         <v>44856.0</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -6672,7 +6686,7 @@
         <v>44857.0</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -6683,7 +6697,7 @@
         <v>44858.0</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -6694,7 +6708,7 @@
         <v>44859.0</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -6705,7 +6719,7 @@
         <v>44860.0</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -6716,7 +6730,7 @@
         <v>44861.0</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -6727,7 +6741,7 @@
         <v>44862.0</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="8"/>
@@ -6738,7 +6752,7 @@
         <v>44863.0</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
@@ -6749,7 +6763,7 @@
         <v>44864.0</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
@@ -6760,7 +6774,7 @@
         <v>44865.0</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="8"/>
@@ -6793,19 +6807,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -6813,7 +6827,7 @@
         <v>44805.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -6824,7 +6838,7 @@
         <v>44806.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -6835,7 +6849,7 @@
         <v>44807.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -6846,7 +6860,7 @@
         <v>44808.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -6857,7 +6871,7 @@
         <v>44809.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -6868,7 +6882,7 @@
         <v>44810.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -6879,7 +6893,7 @@
         <v>44811.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="8"/>
@@ -6890,7 +6904,7 @@
         <v>44812.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -6901,7 +6915,7 @@
         <v>44813.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -6912,7 +6926,7 @@
         <v>44814.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="8"/>
@@ -6923,7 +6937,7 @@
         <v>44815.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -6934,7 +6948,7 @@
         <v>44816.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -6945,7 +6959,7 @@
         <v>44817.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -6965,7 +6979,7 @@
         <v>44819.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -6976,7 +6990,7 @@
         <v>44820.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -6987,7 +7001,7 @@
         <v>44821.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -6998,7 +7012,7 @@
         <v>44822.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -7009,7 +7023,7 @@
         <v>44823.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -7020,7 +7034,7 @@
         <v>44824.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -7031,7 +7045,7 @@
         <v>44825.0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -7042,7 +7056,7 @@
         <v>44826.0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -7053,7 +7067,7 @@
         <v>44827.0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -7064,7 +7078,7 @@
         <v>44828.0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -7075,7 +7089,7 @@
         <v>44829.0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -7086,7 +7100,7 @@
         <v>44830.0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -7097,7 +7111,7 @@
         <v>44831.0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -7108,7 +7122,7 @@
         <v>44832.0</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="8"/>
@@ -7119,7 +7133,7 @@
         <v>44833.0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
@@ -7130,7 +7144,7 @@
         <v>44834.0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>

--- a/楓Duty.xlsx
+++ b/楓Duty.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="61">
   <si>
     <t>day</t>
   </si>
@@ -41,13 +41,13 @@
     <t>氏家琉貴</t>
   </si>
   <si>
-    <t>羽賀尚生+27</t>
+    <t>羽賀尚生さんとキムイェイル</t>
   </si>
   <si>
-    <t>島田実+27</t>
+    <t>島田実さんと三宅大貴</t>
   </si>
   <si>
-    <t>足立耕平+27</t>
+    <t>足立耕平</t>
   </si>
   <si>
     <t>Yunjae</t>
@@ -62,7 +62,7 @@
     <t>川田涼介</t>
   </si>
   <si>
-    <t>豊島亮</t>
+    <t>豊島亮さんと長田祐茉</t>
   </si>
   <si>
     <t>兒島大志郎</t>
@@ -71,7 +71,7 @@
     <t>なし</t>
   </si>
   <si>
-    <t>日高泰聖+27</t>
+    <t>日高泰聖さんと雨ヶ谷湧星</t>
   </si>
   <si>
     <t>Cox Matthew Jonah</t>
@@ -98,10 +98,19 @@
     <t>羽賀尚生</t>
   </si>
   <si>
-    <t>島田実</t>
+    <t>キムイェイル</t>
   </si>
   <si>
-    <t>足立耕平</t>
+    <t>三宅大貴</t>
+  </si>
+  <si>
+    <t>長田祐茉</t>
+  </si>
+  <si>
+    <t>雨ヶ谷湧星</t>
+  </si>
+  <si>
+    <t>島田実</t>
   </si>
   <si>
     <t>Date</t>
@@ -117,6 +126,21 @@
   </si>
   <si>
     <t>カウントチェック</t>
+  </si>
+  <si>
+    <t>羽賀尚生+キムイェイル</t>
+  </si>
+  <si>
+    <t>島田実+三宅大貴</t>
+  </si>
+  <si>
+    <t>豊島亮+長田祐茉</t>
+  </si>
+  <si>
+    <t>日高泰聖+雨ヶ谷湧星</t>
+  </si>
+  <si>
+    <t>豊島亮</t>
   </si>
   <si>
     <t>日高泰聖</t>
@@ -314,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -346,9 +370,6 @@
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
@@ -869,32 +890,32 @@
       <c r="A25" s="1">
         <v>24.0</v>
       </c>
-      <c r="B25" s="1">
-        <v>27.0</v>
+      <c r="B25" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1">
         <v>25.0</v>
       </c>
-      <c r="B26" s="1">
-        <v>27.0</v>
+      <c r="B26" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1">
         <v>26.0</v>
       </c>
-      <c r="B27" s="1">
-        <v>27.0</v>
+      <c r="B27" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1">
         <v>27.0</v>
       </c>
-      <c r="B28" s="1">
-        <v>27.0</v>
+      <c r="B28" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="29">
@@ -902,7 +923,7 @@
         <v>28.0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30">
@@ -910,7 +931,7 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -950,19 +971,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -1017,7 +1038,7 @@
         <v>44779.0</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -1167,7 +1188,7 @@
       <c r="A23" s="6">
         <v>44795.0</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="8"/>
@@ -1206,7 +1227,7 @@
         <v>44799.0</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -1216,7 +1237,7 @@
       <c r="A28" s="6">
         <v>44800.0</v>
       </c>
-      <c r="B28" s="16"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1259,7 +1280,7 @@
       <c r="E32" s="8"/>
     </row>
     <row r="33">
-      <c r="C33" s="12"/>
+      <c r="C33" s="11"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1285,26 +1306,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="6">
         <v>44743.0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="8"/>
@@ -1343,7 +1364,7 @@
         <v>44747.0</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -1353,7 +1374,7 @@
       <c r="A7" s="6">
         <v>44748.0</v>
       </c>
-      <c r="B7" s="15"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -1418,7 +1439,7 @@
         <v>44755.0</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -1504,7 +1525,7 @@
       <c r="A23" s="6">
         <v>44764.0</v>
       </c>
-      <c r="B23" s="13"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1513,7 +1534,7 @@
       <c r="A24" s="6">
         <v>44765.0</v>
       </c>
-      <c r="B24" s="13"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1551,7 +1572,7 @@
       <c r="A28" s="6">
         <v>44769.0</v>
       </c>
-      <c r="B28" s="16"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1569,7 +1590,7 @@
       <c r="A30" s="6">
         <v>44771.0</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="7"/>
@@ -1595,7 +1616,7 @@
       <c r="E32" s="8"/>
     </row>
     <row r="33">
-      <c r="C33" s="12"/>
+      <c r="C33" s="11"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1621,21 +1642,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="18"/>
+        <v>31</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="6">
@@ -1646,20 +1667,20 @@
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="6">
         <v>44714.0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="6">
@@ -1670,56 +1691,56 @@
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="20"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="6">
         <v>44716.0</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="6">
         <v>44717.0</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="20"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="6">
         <v>44718.0</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="19"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="6">
         <v>44719.0</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="20"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="19"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="6">
@@ -1727,32 +1748,32 @@
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="6">
         <v>44721.0</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="6">
         <v>44722.0</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="6">
@@ -1763,44 +1784,44 @@
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="6">
         <v>44724.0</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="6">
         <v>44725.0</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="20"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="19"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="6">
         <v>44726.0</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="20"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="6">
@@ -1811,8 +1832,8 @@
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="6">
@@ -1823,8 +1844,8 @@
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="20"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="19"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="6">
@@ -1835,8 +1856,8 @@
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="20"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="19"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="6">
@@ -1847,20 +1868,20 @@
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="19"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="6">
         <v>44731.0</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="19"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="6">
@@ -1871,8 +1892,8 @@
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="20"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="19"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="6">
@@ -1883,8 +1904,8 @@
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="20"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="19"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="6">
@@ -1895,8 +1916,8 @@
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="20"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="19"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="6">
@@ -1907,68 +1928,68 @@
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="20"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="19"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="6">
         <v>44736.0</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="20"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="19"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="6">
         <v>44737.0</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="20"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="19"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="6">
         <v>44738.0</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="20"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="19"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="A28" s="6">
         <v>44739.0</v>
       </c>
-      <c r="B28" s="16" t="s">
-        <v>39</v>
+      <c r="B28" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="20"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="19"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
       <c r="A29" s="6">
         <v>44740.0</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="19"/>
     </row>
     <row r="30" ht="14.25" customHeight="1">
       <c r="A30" s="6">
@@ -1979,8 +2000,8 @@
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="20"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="19"/>
     </row>
     <row r="31" ht="14.25" customHeight="1">
       <c r="A31" s="6">
@@ -1991,19 +2012,19 @@
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="20"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="19"/>
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="8"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="20"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="19"/>
     </row>
     <row r="33">
-      <c r="C33" s="12"/>
+      <c r="C33" s="11"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -2029,19 +2050,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -2082,7 +2103,7 @@
         <v>44685.0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -2093,7 +2114,7 @@
         <v>44686.0</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -2104,7 +2125,7 @@
         <v>44687.0</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -2114,8 +2135,8 @@
       <c r="A8" s="6">
         <v>44688.0</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>39</v>
+      <c r="B8" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="8"/>
@@ -2126,7 +2147,7 @@
         <v>44689.0</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -2158,7 +2179,7 @@
       <c r="A12" s="6">
         <v>44692.0</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -2168,7 +2189,7 @@
         <v>44693.0</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -2178,7 +2199,7 @@
       <c r="A14" s="6">
         <v>44694.0</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="8"/>
@@ -2190,7 +2211,7 @@
         <v>44695.0</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -2201,7 +2222,7 @@
         <v>44696.0</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -2212,7 +2233,7 @@
         <v>44697.0</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -2234,7 +2255,7 @@
         <v>44699.0</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -2245,7 +2266,7 @@
         <v>44700.0</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -2256,7 +2277,7 @@
         <v>44701.0</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -2311,7 +2332,7 @@
         <v>44706.0</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -2355,7 +2376,7 @@
         <v>44710.0</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
@@ -2366,7 +2387,7 @@
         <v>44711.0</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
@@ -2377,14 +2398,14 @@
         <v>44712.0</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
     </row>
     <row r="33">
-      <c r="C33" s="12"/>
+      <c r="C33" s="11"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -2409,20 +2430,20 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="s">
-        <v>25</v>
+      <c r="A1" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -2430,7 +2451,7 @@
         <v>44652.0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -2452,7 +2473,7 @@
         <v>44654.0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -2463,7 +2484,7 @@
         <v>44655.0</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -2474,7 +2495,7 @@
         <v>44656.0</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -2518,7 +2539,7 @@
         <v>44660.0</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -2551,7 +2572,7 @@
         <v>44663.0</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -2570,7 +2591,7 @@
         <v>44665.0</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -2581,7 +2602,7 @@
         <v>44666.0</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -2591,8 +2612,8 @@
       <c r="A17" s="6">
         <v>44667.0</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>39</v>
+      <c r="B17" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -2603,7 +2624,7 @@
         <v>44668.0</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -2635,7 +2656,7 @@
       <c r="A21" s="6">
         <v>44671.0</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="8"/>
@@ -2647,7 +2668,7 @@
         <v>44672.0</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -2658,7 +2679,7 @@
         <v>44673.0</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -2680,7 +2701,7 @@
         <v>44675.0</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -2691,7 +2712,7 @@
         <v>44676.0</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -2702,7 +2723,7 @@
         <v>44677.0</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -2755,12 +2776,12 @@
     <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="22"/>
+      <c r="C32" s="21"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
     </row>
     <row r="33">
-      <c r="C33" s="12"/>
+      <c r="C33" s="11"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -2785,30 +2806,30 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="s">
-        <v>25</v>
+      <c r="A1" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="6">
         <v>44621.0</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="22">
         <v>273.0</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -2822,7 +2843,7 @@
       <c r="A3" s="6">
         <v>44622.0</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="22">
         <v>252.0</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -2836,7 +2857,7 @@
       <c r="A4" s="6">
         <v>44623.0</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="22">
         <v>283.0</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -2850,11 +2871,11 @@
       <c r="A5" s="6">
         <v>44624.0</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="22">
         <v>262.0</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -2864,11 +2885,11 @@
       <c r="A6" s="6">
         <v>44625.0</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="22">
         <v>275.0</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -2878,11 +2899,11 @@
       <c r="A7" s="6">
         <v>44626.0</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="22">
         <v>265.0</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>39</v>
+      <c r="C7" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -2892,11 +2913,11 @@
       <c r="A8" s="6">
         <v>44627.0</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="22">
         <v>251.0</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="8"/>
@@ -2906,7 +2927,7 @@
       <c r="A9" s="6">
         <v>44628.0</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="22">
         <v>283.0</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -2920,7 +2941,7 @@
       <c r="A10" s="6">
         <v>44629.0</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="22">
         <v>255.0</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -2934,10 +2955,10 @@
       <c r="A11" s="6">
         <v>44630.0</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="23">
         <v>263.0</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="10"/>
@@ -2948,11 +2969,11 @@
       <c r="A12" s="6">
         <v>44631.0</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="22">
         <v>253.0</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -2962,11 +2983,11 @@
       <c r="A13" s="6">
         <v>44632.0</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="24">
         <v>272.0</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -2976,7 +2997,7 @@
       <c r="A14" s="6">
         <v>44633.0</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="24">
         <v>262.0</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -2990,11 +3011,11 @@
       <c r="A15" s="6">
         <v>44634.0</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="24">
         <v>284.0</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -3004,11 +3025,11 @@
       <c r="A16" s="6">
         <v>44635.0</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="24">
         <v>264.0</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -3018,11 +3039,11 @@
       <c r="A17" s="6">
         <v>44636.0</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="25">
         <v>282.0</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -3032,7 +3053,7 @@
       <c r="A18" s="6">
         <v>44637.0</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="22">
         <v>272.0</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -3046,7 +3067,7 @@
       <c r="A19" s="6">
         <v>44638.0</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="22">
         <v>255.0</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -3060,7 +3081,7 @@
       <c r="A20" s="6">
         <v>44639.0</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="22">
         <v>252.0</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -3074,7 +3095,7 @@
       <c r="A21" s="6">
         <v>44640.0</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="22">
         <v>271.0</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -3088,7 +3109,7 @@
       <c r="A22" s="6">
         <v>44641.0</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="22">
         <v>273.0</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -3102,7 +3123,7 @@
       <c r="A23" s="6">
         <v>44642.0</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="22">
         <v>252.0</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -3116,7 +3137,7 @@
       <c r="A24" s="6">
         <v>44643.0</v>
       </c>
-      <c r="B24" s="23">
+      <c r="B24" s="22">
         <v>283.0</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -3130,11 +3151,11 @@
       <c r="A25" s="6">
         <v>44644.0</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="22">
         <v>262.0</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -3144,11 +3165,11 @@
       <c r="A26" s="6">
         <v>44645.0</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="22">
         <v>275.0</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -3158,11 +3179,11 @@
       <c r="A27" s="6">
         <v>44646.0</v>
       </c>
-      <c r="B27" s="23">
+      <c r="B27" s="22">
         <v>265.0</v>
       </c>
-      <c r="C27" s="16" t="s">
-        <v>39</v>
+      <c r="C27" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -3172,11 +3193,11 @@
       <c r="A28" s="6">
         <v>44647.0</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B28" s="22">
         <v>251.0</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -3186,7 +3207,7 @@
       <c r="A29" s="6">
         <v>44648.0</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B29" s="22">
         <v>283.0</v>
       </c>
       <c r="C29" s="7" t="s">
@@ -3200,7 +3221,7 @@
       <c r="A30" s="6">
         <v>44649.0</v>
       </c>
-      <c r="B30" s="23">
+      <c r="B30" s="22">
         <v>281.0</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -3214,10 +3235,10 @@
       <c r="A31" s="6">
         <v>44650.0</v>
       </c>
-      <c r="B31" s="24">
+      <c r="B31" s="23">
         <v>263.0</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="7"/>
@@ -3228,11 +3249,11 @@
       <c r="A32" s="6">
         <v>44651.0</v>
       </c>
-      <c r="B32" s="23">
+      <c r="B32" s="22">
         <v>253.0</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="8"/>
@@ -3261,34 +3282,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="s">
-        <v>25</v>
+      <c r="A1" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="6">
         <v>44593.0</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="22">
         <v>253.0</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
@@ -3298,7 +3319,7 @@
       <c r="A3" s="6">
         <v>44594.0</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="22">
         <v>272.0</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -3312,7 +3333,7 @@
       <c r="A4" s="6">
         <v>44595.0</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="22">
         <v>255.0</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -3326,7 +3347,7 @@
       <c r="A5" s="6">
         <v>44596.0</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="22">
         <v>252.0</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -3340,7 +3361,7 @@
       <c r="A6" s="6">
         <v>44597.0</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="22">
         <v>271.0</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -3354,7 +3375,7 @@
       <c r="A7" s="6">
         <v>44598.0</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="22">
         <v>273.0</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -3368,7 +3389,7 @@
       <c r="A8" s="6">
         <v>44599.0</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="22">
         <v>252.0</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -3382,7 +3403,7 @@
       <c r="A9" s="6">
         <v>44600.0</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="22">
         <v>283.0</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -3396,7 +3417,7 @@
       <c r="A10" s="6">
         <v>44601.0</v>
       </c>
-      <c r="B10" s="23"/>
+      <c r="B10" s="22"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -3405,11 +3426,11 @@
       <c r="A11" s="6">
         <v>44602.0</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="22">
         <v>262.0</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="8"/>
@@ -3419,11 +3440,11 @@
       <c r="A12" s="6">
         <v>44603.0</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="22">
         <v>275.0</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -3433,11 +3454,11 @@
       <c r="A13" s="6">
         <v>44604.0</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="22">
         <v>265.0</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>39</v>
+      <c r="C13" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -3447,11 +3468,11 @@
       <c r="A14" s="6">
         <v>44605.0</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="22">
         <v>251.0</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -3461,11 +3482,11 @@
       <c r="A15" s="6">
         <v>44606.0</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="22">
         <v>283.0</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -3475,7 +3496,7 @@
       <c r="A16" s="6">
         <v>44607.0</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="22">
         <v>281.0</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -3489,7 +3510,7 @@
       <c r="A17" s="6">
         <v>44608.0</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="22">
         <v>283.0</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -3503,10 +3524,10 @@
       <c r="A18" s="6">
         <v>44609.0</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="23">
         <v>263.0</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="8"/>
@@ -3517,11 +3538,11 @@
       <c r="A19" s="6">
         <v>44610.0</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="22">
         <v>253.0</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -3531,11 +3552,11 @@
       <c r="A20" s="6">
         <v>44611.0</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20" s="24">
         <v>272.0</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -3545,7 +3566,7 @@
       <c r="A21" s="6">
         <v>44612.0</v>
       </c>
-      <c r="B21" s="25">
+      <c r="B21" s="24">
         <v>262.0</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -3559,11 +3580,11 @@
       <c r="A22" s="6">
         <v>44613.0</v>
       </c>
-      <c r="B22" s="25">
+      <c r="B22" s="24">
         <v>284.0</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -3573,11 +3594,11 @@
       <c r="A23" s="6">
         <v>44614.0</v>
       </c>
-      <c r="B23" s="25">
+      <c r="B23" s="24">
         <v>264.0</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -3587,11 +3608,11 @@
       <c r="A24" s="6">
         <v>44615.0</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="25">
         <v>282.0</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -3601,11 +3622,11 @@
       <c r="A25" s="6">
         <v>44616.0</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="22">
         <v>253.0</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -3615,7 +3636,7 @@
       <c r="A26" s="6">
         <v>44617.0</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="22">
         <v>272.0</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -3629,7 +3650,7 @@
       <c r="A27" s="6">
         <v>44618.0</v>
       </c>
-      <c r="B27" s="23">
+      <c r="B27" s="22">
         <v>255.0</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -3643,7 +3664,7 @@
       <c r="A28" s="6">
         <v>44619.0</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B28" s="22">
         <v>252.0</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -3657,7 +3678,7 @@
       <c r="A29" s="6">
         <v>44620.0</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B29" s="22">
         <v>271.0</v>
       </c>
       <c r="C29" s="7" t="s">
@@ -3669,24 +3690,24 @@
     </row>
     <row r="30" ht="14.25" customHeight="1">
       <c r="A30" s="6"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="7"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
     </row>
     <row r="31" ht="14.25" customHeight="1">
       <c r="A31" s="6"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="23"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="22"/>
       <c r="D31" s="7"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="6"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="23"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="22"/>
       <c r="D32" s="7"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
@@ -3714,30 +3735,30 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="s">
-        <v>25</v>
+      <c r="A1" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="6">
         <v>44562.0</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="7"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
@@ -3747,7 +3768,7 @@
       <c r="A3" s="6">
         <v>44563.0</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -3757,7 +3778,7 @@
       <c r="A4" s="6">
         <v>44564.0</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="7"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -3767,7 +3788,7 @@
       <c r="A5" s="6">
         <v>44565.0</v>
       </c>
-      <c r="B5" s="23"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -3777,11 +3798,11 @@
       <c r="A6" s="6">
         <v>44566.0</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="25">
         <v>264.0</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -3791,11 +3812,11 @@
       <c r="A7" s="6">
         <v>44567.0</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="25">
         <v>282.0</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -3805,11 +3826,11 @@
       <c r="A8" s="6">
         <v>44568.0</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="22">
         <v>253.0</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="8"/>
@@ -3819,7 +3840,7 @@
       <c r="A9" s="6">
         <v>44569.0</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="22">
         <v>272.0</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -3833,7 +3854,7 @@
       <c r="A10" s="6">
         <v>44570.0</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="22">
         <v>255.0</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -3847,7 +3868,7 @@
       <c r="A11" s="6">
         <v>44571.0</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="22">
         <v>252.0</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -3861,7 +3882,7 @@
       <c r="A12" s="6">
         <v>44572.0</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="22">
         <v>271.0</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -3875,7 +3896,7 @@
       <c r="A13" s="6">
         <v>44573.0</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="22">
         <v>273.0</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -3889,7 +3910,7 @@
       <c r="A14" s="6">
         <v>44574.0</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="22">
         <v>252.0</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -3903,7 +3924,7 @@
       <c r="A15" s="6">
         <v>44575.0</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="22">
         <v>283.0</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -3917,11 +3938,11 @@
       <c r="A16" s="6">
         <v>44576.0</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="22">
         <v>262.0</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -3931,11 +3952,11 @@
       <c r="A17" s="6">
         <v>44577.0</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="22">
         <v>275.0</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -3945,11 +3966,11 @@
       <c r="A18" s="6">
         <v>44578.0</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="22">
         <v>265.0</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>39</v>
+      <c r="C18" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -3959,11 +3980,11 @@
       <c r="A19" s="6">
         <v>44579.0</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="22">
         <v>251.0</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -3973,9 +3994,9 @@
       <c r="A20" s="6">
         <v>44580.0</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="27" t="s">
-        <v>51</v>
+      <c r="B20" s="22"/>
+      <c r="C20" s="26" t="s">
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -3985,11 +4006,11 @@
       <c r="A21" s="6">
         <v>44581.0</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="22">
         <v>281.0</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -3999,7 +4020,7 @@
       <c r="A22" s="6">
         <v>44582.0</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="22">
         <v>283.0</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -4013,7 +4034,7 @@
       <c r="A23" s="6">
         <v>44583.0</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="22">
         <v>282.0</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -4027,11 +4048,11 @@
       <c r="A24" s="6">
         <v>44584.0</v>
       </c>
-      <c r="B24" s="23">
+      <c r="B24" s="22">
         <v>271.0</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -4041,10 +4062,10 @@
       <c r="A25" s="6">
         <v>44585.0</v>
       </c>
-      <c r="B25" s="24">
+      <c r="B25" s="23">
         <v>263.0</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="8"/>
@@ -4055,11 +4076,11 @@
       <c r="A26" s="6">
         <v>44586.0</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="22">
         <v>253.0</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -4069,11 +4090,11 @@
       <c r="A27" s="6">
         <v>44587.0</v>
       </c>
-      <c r="B27" s="25">
+      <c r="B27" s="24">
         <v>272.0</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -4083,7 +4104,7 @@
       <c r="A28" s="6">
         <v>44588.0</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="24">
         <v>262.0</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -4097,11 +4118,11 @@
       <c r="A29" s="6">
         <v>44589.0</v>
       </c>
-      <c r="B29" s="25">
+      <c r="B29" s="24">
         <v>284.0</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -4111,11 +4132,11 @@
       <c r="A30" s="6">
         <v>44590.0</v>
       </c>
-      <c r="B30" s="25">
+      <c r="B30" s="24">
         <v>285.0</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -4125,11 +4146,11 @@
       <c r="A31" s="6">
         <v>44591.0</v>
       </c>
-      <c r="B31" s="25">
+      <c r="B31" s="24">
         <v>264.0</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -4139,11 +4160,11 @@
       <c r="A32" s="6">
         <v>44592.0</v>
       </c>
-      <c r="B32" s="26">
+      <c r="B32" s="25">
         <v>282.0</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -4158,6 +4179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4173,19 +4195,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -4215,7 +4237,7 @@
         <v>45019.0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -4226,7 +4248,7 @@
         <v>45020.0</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -4292,7 +4314,7 @@
         <v>45026.0</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="8"/>
@@ -4322,7 +4344,7 @@
         <v>45029.0</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -4442,8 +4464,8 @@
       <c r="A25" s="6">
         <v>45040.0</v>
       </c>
-      <c r="B25" s="11">
-        <v>27.0</v>
+      <c r="B25" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -4453,8 +4475,8 @@
       <c r="A26" s="6">
         <v>45041.0</v>
       </c>
-      <c r="B26" s="11">
-        <v>27.0</v>
+      <c r="B26" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -4464,8 +4486,8 @@
       <c r="A27" s="6">
         <v>45042.0</v>
       </c>
-      <c r="B27" s="11">
-        <v>27.0</v>
+      <c r="B27" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -4475,8 +4497,8 @@
       <c r="A28" s="6">
         <v>45043.0</v>
       </c>
-      <c r="B28" s="11">
-        <v>27.0</v>
+      <c r="B28" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -4487,7 +4509,7 @@
         <v>45044.0</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="8"/>
@@ -4498,7 +4520,7 @@
         <v>45045.0</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
@@ -4523,13 +4545,16 @@
       <c r="E32" s="8"/>
     </row>
     <row r="33">
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
     </row>
     <row r="34">
       <c r="B34" s="3"/>
     </row>
   </sheetData>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -4553,19 +4578,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -4584,7 +4609,7 @@
         <v>44987.0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -4606,7 +4631,7 @@
         <v>44989.0</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -4727,7 +4752,7 @@
         <v>45000.0</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -4738,7 +4763,7 @@
         <v>45001.0</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
@@ -4793,7 +4818,7 @@
         <v>45006.0</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -4815,7 +4840,7 @@
         <v>45008.0</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -4848,7 +4873,7 @@
         <v>45011.0</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -4910,7 +4935,7 @@
       <c r="E32" s="8"/>
     </row>
     <row r="33">
-      <c r="C33" s="12"/>
+      <c r="C33" s="11"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4936,19 +4961,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -4967,7 +4992,7 @@
         <v>44959.0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -4978,7 +5003,7 @@
         <v>44960.0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -5022,7 +5047,7 @@
         <v>44964.0</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="8"/>
@@ -5052,7 +5077,7 @@
         <v>44967.0</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="8"/>
@@ -5063,7 +5088,7 @@
         <v>44968.0</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -5096,7 +5121,7 @@
         <v>44971.0</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -5195,7 +5220,7 @@
         <v>44980.0</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -5206,7 +5231,7 @@
         <v>44981.0</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -5228,7 +5253,7 @@
         <v>44983.0</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -5278,7 +5303,7 @@
       <c r="E32" s="8"/>
     </row>
     <row r="33">
-      <c r="C33" s="12"/>
+      <c r="C33" s="11"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -5304,19 +5329,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -5406,7 +5431,7 @@
         <v>44935.0</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -5417,7 +5442,7 @@
         <v>44936.0</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="8"/>
@@ -5469,7 +5494,7 @@
         <v>44941.0</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -5491,7 +5516,7 @@
         <v>44943.0</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -5502,7 +5527,7 @@
         <v>44944.0</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -5535,7 +5560,7 @@
         <v>44947.0</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -5634,7 +5659,7 @@
         <v>44956.0</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
@@ -5645,14 +5670,14 @@
         <v>44957.0</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
     </row>
     <row r="33">
-      <c r="C33" s="12"/>
+      <c r="C33" s="11"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -5678,19 +5703,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -5698,7 +5723,7 @@
         <v>44896.0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -5709,7 +5734,7 @@
         <v>44897.0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -5753,7 +5778,7 @@
         <v>44901.0</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -5775,7 +5800,7 @@
         <v>44903.0</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -5786,7 +5811,7 @@
         <v>44904.0</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -5819,7 +5844,7 @@
         <v>44907.0</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -5926,7 +5951,7 @@
         <v>44917.0</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -5937,7 +5962,7 @@
         <v>44918.0</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -5976,7 +6001,7 @@
         <v>44922.0</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -5996,7 +6021,7 @@
         <v>44924.0</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
@@ -6023,7 +6048,7 @@
       <c r="E32" s="8"/>
     </row>
     <row r="33">
-      <c r="C33" s="12"/>
+      <c r="C33" s="11"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -6049,19 +6074,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -6113,7 +6138,7 @@
         <v>44870.0</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -6124,7 +6149,7 @@
         <v>44871.0</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -6135,7 +6160,7 @@
         <v>44872.0</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="8"/>
@@ -6146,7 +6171,7 @@
         <v>44873.0</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -6199,7 +6224,7 @@
         <v>44878.0</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -6221,7 +6246,7 @@
         <v>44880.0</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -6232,7 +6257,7 @@
         <v>44881.0</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
@@ -6243,7 +6268,7 @@
         <v>44882.0</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -6276,7 +6301,7 @@
         <v>44885.0</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -6375,7 +6400,7 @@
         <v>44894.0</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
@@ -6386,7 +6411,7 @@
         <v>44895.0</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
@@ -6400,7 +6425,7 @@
       <c r="E32" s="8"/>
     </row>
     <row r="33">
-      <c r="C33" s="12"/>
+      <c r="C33" s="11"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -6426,19 +6451,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -6468,7 +6493,7 @@
         <v>44837.0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -6566,7 +6591,7 @@
       <c r="A13" s="6">
         <v>44846.0</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -6576,7 +6601,7 @@
         <v>44847.0</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -6587,7 +6612,7 @@
         <v>44848.0</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -6598,7 +6623,7 @@
         <v>44849.0</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -6609,7 +6634,7 @@
         <v>44850.0</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -6642,7 +6667,7 @@
         <v>44853.0</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -6664,7 +6689,7 @@
         <v>44855.0</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -6675,7 +6700,7 @@
         <v>44856.0</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -6697,7 +6722,7 @@
         <v>44858.0</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -6730,7 +6755,7 @@
         <v>44861.0</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -6781,7 +6806,7 @@
       <c r="E32" s="8"/>
     </row>
     <row r="33">
-      <c r="C33" s="12"/>
+      <c r="C33" s="11"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -6807,19 +6832,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -6827,7 +6852,7 @@
         <v>44805.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -6849,7 +6874,7 @@
         <v>44807.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -6860,7 +6885,7 @@
         <v>44808.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -6882,7 +6907,7 @@
         <v>44810.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -6893,7 +6918,7 @@
         <v>44811.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="8"/>
@@ -6904,7 +6929,7 @@
         <v>44812.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -6969,7 +6994,7 @@
       <c r="A15" s="6">
         <v>44818.0</v>
       </c>
-      <c r="B15" s="14"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -6990,7 +7015,7 @@
         <v>44820.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -7012,7 +7037,7 @@
         <v>44822.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -7023,7 +7048,7 @@
         <v>44823.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -7034,7 +7059,7 @@
         <v>44824.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -7045,7 +7070,7 @@
         <v>44825.0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -7078,7 +7103,7 @@
         <v>44828.0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -7100,7 +7125,7 @@
         <v>44830.0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -7111,7 +7136,7 @@
         <v>44831.0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -7144,7 +7169,7 @@
         <v>44834.0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
@@ -7158,7 +7183,7 @@
       <c r="E32" s="8"/>
     </row>
     <row r="33">
-      <c r="C33" s="12"/>
+      <c r="C33" s="11"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
